--- a/exercic2/employee.xlsx
+++ b/exercic2/employee.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -34,17 +34,22 @@
     <t>moreil</t>
   </si>
   <si>
-    <t>policier</t>
-  </si>
-  <si>
-    <t>hermes@gmail.com</t>
+    <t>hermesNguefs@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,7 +65,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -72,26 +84,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -118,82 +150,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -205,131 +237,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -340,41 +399,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exercic2/employee.xlsx
+++ b/exercic2/employee.xlsx
@@ -59,20 +59,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF11"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment justifyLastLine="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,19 +378,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/exercic2/employee.xlsx
+++ b/exercic2/employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +43,7 @@
     <t>hermesNguefs@gmail.com</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>JO</t>
   </si>
   <si>
     <t>tsafack</t>
@@ -52,7 +52,31 @@
     <t>dev</t>
   </si>
   <si>
-    <t>jordantsaf@gmail.com</t>
+    <t>tsafackjordan@gmail.com</t>
+  </si>
+  <si>
+    <t>benoit</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>vigile</t>
+  </si>
+  <si>
+    <t>benoitjean@gmail.com</t>
+  </si>
+  <si>
+    <t>surveillant</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>pompier</t>
+  </si>
+  <si>
+    <t>claude@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -102,7 +126,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment justifyLastLine="true"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,6 +452,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>